--- a/Assets/DataSheet/Data_Messages.xlsx
+++ b/Assets/DataSheet/Data_Messages.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\3D Portfolio\Assets\DataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\3D-Portfolio\Assets\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20985" windowHeight="9120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Kor" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>송이</t>
   </si>
   <si>
-    <t>앞과 끝 스토리는 개발되지 않는점 너른 양해 부탁드립니다.</t>
-  </si>
-  <si>
     <t>일단 각자 흩어져서 이곳의 정보를 찾아보자</t>
   </si>
   <si>
@@ -244,6 +241,10 @@
   </si>
   <si>
     <t>고생했어</t>
+  </si>
+  <si>
+    <t>지난 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -713,7 +714,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -730,16 +731,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -830,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -910,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -952,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -992,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1118,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -1244,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
@@ -1286,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -1328,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -1370,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -1412,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -1448,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="4">
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1475,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1500,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="12">
         <v>4</v>
@@ -1542,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="12">
         <v>0</v>
@@ -1578,13 +1579,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
@@ -1620,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1647,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1672,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -1708,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -1750,13 +1751,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5">
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -1792,13 +1793,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -1834,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="12">
         <v>5</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -1876,13 +1877,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="12">
         <v>2</v>
@@ -1918,13 +1919,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="12">
         <v>5</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="12">
         <v>0</v>
@@ -1960,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -2002,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -2044,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="11">
         <v>8</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
@@ -2086,13 +2087,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="11">
         <v>2</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -2128,13 +2129,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -2170,13 +2171,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="11">
         <v>8</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -2212,13 +2213,13 @@
         <v>4</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
@@ -2254,13 +2255,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="11">
         <v>8</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37" s="11">
         <v>0</v>
@@ -2296,13 +2297,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="11">
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -2338,13 +2339,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="11">
         <v>8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="11">
         <v>0</v>
@@ -2380,13 +2381,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="11">
         <v>8</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -2422,13 +2423,13 @@
         <v>9</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="11">
         <v>8</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="11">
         <v>0</v>
@@ -2464,13 +2465,13 @@
         <v>10</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="11">
         <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -2506,13 +2507,13 @@
         <v>11</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="11">
         <v>8</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="11">
         <v>0</v>
@@ -2548,13 +2549,13 @@
         <v>12</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>

--- a/Assets/DataSheet/Data_Messages.xlsx
+++ b/Assets/DataSheet/Data_Messages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20985" windowHeight="9120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="9240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Kor" sheetId="1" r:id="rId1"/>
@@ -33,217 +33,219 @@
     <t>Quest</t>
   </si>
   <si>
+    <t>Select_Code_2</t>
+  </si>
+  <si>
+    <t>Select_Code_3</t>
+  </si>
+  <si>
+    <t>Select_Code_4</t>
+  </si>
+  <si>
+    <t>Select_Txt_1</t>
+  </si>
+  <si>
+    <t>Select_Txt_2</t>
+  </si>
+  <si>
+    <t>Select_Txt_3</t>
+  </si>
+  <si>
+    <t>Select_Txt_4</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>플레이어</t>
+  </si>
+  <si>
+    <t>포트폴리오 버전은 스토리 중간에서 시작합니다.</t>
+  </si>
+  <si>
+    <t>결국.. 이렇게 되버렷구나 …</t>
+  </si>
+  <si>
+    <t>현우</t>
+  </si>
+  <si>
+    <t>현아</t>
+  </si>
+  <si>
+    <t>다온</t>
+  </si>
+  <si>
+    <t>소연</t>
+  </si>
+  <si>
+    <t>은서</t>
+  </si>
+  <si>
+    <t>젠장..</t>
+  </si>
+  <si>
+    <t>다들 늦지 않게 와줘서 고마워</t>
+  </si>
+  <si>
+    <t>하… 이 시간에 이게 무슨일이야.. 주변은 걱정하지마 아빠 한테 말해서 막아놧어</t>
+  </si>
+  <si>
+    <t>여기는 대한민국 xx지역의 xxx학교</t>
+  </si>
+  <si>
+    <t>송이</t>
+  </si>
+  <si>
+    <t>일단 각자 흩어져서 이곳의 정보를 찾아보자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결국 난 약한 사람이야.. 아무도 구할수 없어.. </t>
+  </si>
+  <si>
+    <t>나 때문이야.. 내가 옆에서 지켜줬어야 했어..!!</t>
+  </si>
+  <si>
+    <t>씻지도 못하고 이게 무슨일이야.. 너무 찝찝해!</t>
+  </si>
+  <si>
+    <t>필요한게 있어?</t>
+  </si>
+  <si>
+    <t>산다</t>
+  </si>
+  <si>
+    <t>나간다</t>
+  </si>
+  <si>
+    <t>은서</t>
+  </si>
+  <si>
+    <t>???현상이 일어나면 이상할것도 없지</t>
+  </si>
+  <si>
+    <t>플레이어</t>
+  </si>
+  <si>
+    <t>조심히 앞으로 가보자</t>
+  </si>
+  <si>
+    <t>현우</t>
+  </si>
+  <si>
+    <t>현아</t>
+  </si>
+  <si>
+    <t>현우야 앞으로 나갈려면 어쩔수 없을거 같아 (플레이어)(이)야 빠르게 해치우자!</t>
+  </si>
+  <si>
+    <t>너무 갑작스러워서 장비는 많이 챙기지 못햇어 그래도 도움이 필요하면 말해줘</t>
+  </si>
+  <si>
+    <t>송이</t>
+  </si>
+  <si>
+    <t>송이야!! 제발 다시 돌아와!! 우리 행복했잖아!!</t>
+  </si>
+  <si>
+    <t>내가 생각했던 의로움은 날 싫어하게 만들엇어..</t>
+  </si>
+  <si>
+    <t>너희들과 만나기 전으로 돌아갈수 있어..</t>
+  </si>
+  <si>
+    <t>이거라면 나는 내 자신을 미워하지 않아도돼..</t>
+  </si>
+  <si>
+    <t>나는 이제 이 생활을 끝낼수 있어..</t>
+  </si>
+  <si>
+    <t>안돼!!! 송이야!!!!!!!</t>
+  </si>
+  <si>
+    <t>저건.. 송이가 키우던 애완슬라임.. 너도.. 결국..</t>
+  </si>
+  <si>
+    <t>그래!! 송이야!! 우리 함께 버텨왔잖아!! 동료잖아!!</t>
+  </si>
+  <si>
+    <t>뭐..?</t>
+  </si>
+  <si>
+    <t>나는 이제 아무에게도 구원받지 않아..</t>
+  </si>
+  <si>
+    <t>나는 이제 다른사람을 구하지 않아도돼..</t>
+  </si>
+  <si>
+    <t>현우야.. 난.. 언제까지 이 짓을 계속 해야되는거야..?</t>
+  </si>
+  <si>
+    <t>미안해 (플레이어)(이)야 그리고 모두..  하지만 어쩔수 없엇어..</t>
+  </si>
+  <si>
+    <t>왓구나.. 얘들아..</t>
+  </si>
+  <si>
+    <t>송이는 플레이어와 악몽(lucid dream) 속에서도 열심히 싸워 왔지만 현실에서는 자신도 지키지 못하는것에 대한 괴리감을 느낀다.</t>
+  </si>
+  <si>
+    <t>결국 송이는 ???현상의 재물이 되어버리고 학교가 악몽(lucid dream)속에 먹혀버린다.</t>
+  </si>
+  <si>
+    <t>원래 xxx학교가 이렇게 컷던가..?</t>
+  </si>
+  <si>
+    <t>너무 자책 하지 말자.. 제일 괴로운건 송이 자신일꺼야..</t>
+  </si>
+  <si>
+    <t>송이야..</t>
+  </si>
+  <si>
+    <t>소연</t>
+  </si>
+  <si>
+    <t>나중에..</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>아 너무 덥다 ..</t>
+  </si>
+  <si>
+    <t>알았어</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>다녀와</t>
+  </si>
+  <si>
+    <t>다 잡은거야??</t>
+  </si>
+  <si>
+    <t>장비는 은서가 팔고 있어</t>
+  </si>
+  <si>
+    <t>뭐야? 거짓말 하는거야?</t>
+  </si>
+  <si>
+    <t>조사해보니 안에 몬스터가 있는거 같아 10마리만 잡아줘</t>
+  </si>
+  <si>
+    <t>고생했어</t>
+  </si>
+  <si>
+    <t>지난 이야기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Select_Code_1</t>
-  </si>
-  <si>
-    <t>Select_Code_2</t>
-  </si>
-  <si>
-    <t>Select_Code_3</t>
-  </si>
-  <si>
-    <t>Select_Code_4</t>
-  </si>
-  <si>
-    <t>Select_Txt_1</t>
-  </si>
-  <si>
-    <t>Select_Txt_2</t>
-  </si>
-  <si>
-    <t>Select_Txt_3</t>
-  </si>
-  <si>
-    <t>Select_Txt_4</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>플레이어</t>
-  </si>
-  <si>
-    <t>포트폴리오 버전은 스토리 중간에서 시작합니다.</t>
-  </si>
-  <si>
-    <t>결국.. 이렇게 되버렷구나 …</t>
-  </si>
-  <si>
-    <t>현우</t>
-  </si>
-  <si>
-    <t>현아</t>
-  </si>
-  <si>
-    <t>다온</t>
-  </si>
-  <si>
-    <t>소연</t>
-  </si>
-  <si>
-    <t>은서</t>
-  </si>
-  <si>
-    <t>젠장..</t>
-  </si>
-  <si>
-    <t>다들 늦지 않게 와줘서 고마워</t>
-  </si>
-  <si>
-    <t>하… 이 시간에 이게 무슨일이야.. 주변은 걱정하지마 아빠 한테 말해서 막아놧어</t>
-  </si>
-  <si>
-    <t>여기는 대한민국 xx지역의 xxx학교</t>
-  </si>
-  <si>
-    <t>송이</t>
-  </si>
-  <si>
-    <t>일단 각자 흩어져서 이곳의 정보를 찾아보자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">결국 난 약한 사람이야.. 아무도 구할수 없어.. </t>
-  </si>
-  <si>
-    <t>나 때문이야.. 내가 옆에서 지켜줬어야 했어..!!</t>
-  </si>
-  <si>
-    <t>씻지도 못하고 이게 무슨일이야.. 너무 찝찝해!</t>
-  </si>
-  <si>
-    <t>필요한게 있어?</t>
-  </si>
-  <si>
-    <t>산다</t>
-  </si>
-  <si>
-    <t>나간다</t>
-  </si>
-  <si>
-    <t>은서</t>
-  </si>
-  <si>
-    <t>???현상이 일어나면 이상할것도 없지</t>
-  </si>
-  <si>
-    <t>플레이어</t>
-  </si>
-  <si>
-    <t>조심히 앞으로 가보자</t>
-  </si>
-  <si>
-    <t>현우</t>
-  </si>
-  <si>
-    <t>현아</t>
-  </si>
-  <si>
-    <t>현우야 앞으로 나갈려면 어쩔수 없을거 같아 (플레이어)(이)야 빠르게 해치우자!</t>
-  </si>
-  <si>
-    <t>너무 갑작스러워서 장비는 많이 챙기지 못햇어 그래도 도움이 필요하면 말해줘</t>
-  </si>
-  <si>
-    <t>송이</t>
-  </si>
-  <si>
-    <t>송이야!! 제발 다시 돌아와!! 우리 행복했잖아!!</t>
-  </si>
-  <si>
-    <t>내가 생각했던 의로움은 날 싫어하게 만들엇어..</t>
-  </si>
-  <si>
-    <t>너희들과 만나기 전으로 돌아갈수 있어..</t>
-  </si>
-  <si>
-    <t>이거라면 나는 내 자신을 미워하지 않아도돼..</t>
-  </si>
-  <si>
-    <t>나는 이제 이 생활을 끝낼수 있어..</t>
-  </si>
-  <si>
-    <t>안돼!!! 송이야!!!!!!!</t>
-  </si>
-  <si>
-    <t>저건.. 송이가 키우던 애완슬라임.. 너도.. 결국..</t>
-  </si>
-  <si>
-    <t>그래!! 송이야!! 우리 함께 버텨왔잖아!! 동료잖아!!</t>
-  </si>
-  <si>
-    <t>뭐..?</t>
-  </si>
-  <si>
-    <t>나는 이제 아무에게도 구원받지 않아..</t>
-  </si>
-  <si>
-    <t>나는 이제 다른사람을 구하지 않아도돼..</t>
-  </si>
-  <si>
-    <t>현우야.. 난.. 언제까지 이 짓을 계속 해야되는거야..?</t>
-  </si>
-  <si>
-    <t>미안해 (플레이어)(이)야 그리고 모두..  하지만 어쩔수 없엇어..</t>
-  </si>
-  <si>
-    <t>왓구나.. 얘들아..</t>
-  </si>
-  <si>
-    <t>송이는 플레이어와 악몽(lucid dream) 속에서도 열심히 싸워 왔지만 현실에서는 자신도 지키지 못하는것에 대한 괴리감을 느낀다.</t>
-  </si>
-  <si>
-    <t>결국 송이는 ???현상의 재물이 되어버리고 학교가 악몽(lucid dream)속에 먹혀버린다.</t>
-  </si>
-  <si>
-    <t>원래 xxx학교가 이렇게 컷던가..?</t>
-  </si>
-  <si>
-    <t>너무 자책 하지 말자.. 제일 괴로운건 송이 자신일꺼야..</t>
-  </si>
-  <si>
-    <t>송이야..</t>
-  </si>
-  <si>
-    <t>소연</t>
-  </si>
-  <si>
-    <t>나중에..</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>아 너무 덥다 ..</t>
-  </si>
-  <si>
-    <t>알았어</t>
-  </si>
-  <si>
-    <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DialogIndex</t>
-  </si>
-  <si>
-    <t>다녀와</t>
-  </si>
-  <si>
-    <t>다 잡은거야??</t>
-  </si>
-  <si>
-    <t>장비는 은서가 팔고 있어</t>
-  </si>
-  <si>
-    <t>뭐야? 거짓말 하는거야?</t>
-  </si>
-  <si>
-    <t>조사해보니 안에 몬스터가 있는거 같아 10마리만 잡아줘</t>
-  </si>
-  <si>
-    <t>고생했어</t>
-  </si>
-  <si>
-    <t>지난 이야기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +429,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -731,16 +736,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -751,32 +756,32 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -791,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
@@ -831,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -871,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
@@ -911,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -947,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
         <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -993,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1029,13 +1034,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -1071,13 +1076,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="9">
         <v>2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
@@ -1113,13 +1118,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="10">
         <v>3</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
@@ -1155,13 +1160,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9">
         <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
@@ -1197,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9">
         <v>5</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
@@ -1239,13 +1244,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9">
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="9">
         <v>0</v>
@@ -1281,13 +1286,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9">
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -1323,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -1365,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -1407,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
         <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -1449,13 +1454,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4">
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1476,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1495,13 +1500,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="12">
         <v>5</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19" s="12">
         <v>4</v>
@@ -1537,13 +1542,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="12">
         <v>5</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="12">
         <v>0</v>
@@ -1579,13 +1584,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="4">
         <v>4</v>
@@ -1621,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -1648,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -1667,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -1709,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="5">
         <v>0</v>
@@ -1751,13 +1756,13 @@
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="5">
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5">
         <v>0</v>
@@ -1793,13 +1798,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
@@ -1835,13 +1840,13 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="12">
         <v>5</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" s="12">
         <v>0</v>
@@ -1877,13 +1882,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F28" s="12">
         <v>2</v>
@@ -1919,16 +1924,16 @@
         <v>3</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="12">
         <v>5</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="12">
         <v>0</v>
@@ -1961,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -2003,13 +2008,13 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3">
         <v>3</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -2045,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="11">
         <v>8</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
@@ -2087,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="11">
         <v>2</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -2129,13 +2134,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="11">
         <v>1</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -2171,13 +2176,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="11">
         <v>8</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -2213,13 +2218,13 @@
         <v>4</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="11">
         <v>2</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
@@ -2255,13 +2260,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="11">
         <v>8</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="11">
         <v>0</v>
@@ -2297,13 +2302,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="11">
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -2339,13 +2344,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="11">
         <v>8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="11">
         <v>0</v>
@@ -2381,13 +2386,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="11">
         <v>8</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -2423,13 +2428,13 @@
         <v>9</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="11">
         <v>8</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="11">
         <v>0</v>
@@ -2465,13 +2470,13 @@
         <v>10</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="11">
         <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -2507,13 +2512,13 @@
         <v>11</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="11">
         <v>8</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="11">
         <v>0</v>
@@ -2549,13 +2554,13 @@
         <v>12</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>

--- a/Assets/DataSheet/Data_Messages.xlsx
+++ b/Assets/DataSheet/Data_Messages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="9240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="9945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Kor" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>장비는 은서가 팔고 있어</t>
-  </si>
-  <si>
-    <t>뭐야? 거짓말 하는거야?</t>
   </si>
   <si>
     <t>조사해보니 안에 몬스터가 있는거 같아 10마리만 잡아줘</t>
@@ -246,6 +243,27 @@
   </si>
   <si>
     <t>DialogIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 응</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -739,7 +757,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -757,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -836,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -1460,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -1858,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J27" s="12">
         <v>0</v>
@@ -1866,8 +1884,12 @@
       <c r="K27" s="12">
         <v>0</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12">
@@ -1888,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="12">
         <v>2</v>
@@ -1917,44 +1939,44 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>4</v>
-      </c>
-      <c r="B29" s="12">
-        <v>3</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
-        <v>0</v>
-      </c>
-      <c r="J29" s="12">
-        <v>0</v>
-      </c>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1963,16 +1985,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -2001,44 +2023,44 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3">
+      <c r="A31" s="11">
+        <v>7</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="11">
+        <v>8</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2047,16 +2069,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D32" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
@@ -2089,16 +2111,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="11">
         <v>1</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -2131,16 +2153,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D34" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -2173,16 +2195,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D35" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -2215,16 +2237,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D36" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
@@ -2257,7 +2279,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>40</v>
@@ -2266,7 +2288,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F37" s="11">
         <v>0</v>
@@ -2299,7 +2321,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>40</v>
@@ -2308,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -2341,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>40</v>
@@ -2350,7 +2372,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="11">
         <v>0</v>
@@ -2383,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>40</v>
@@ -2392,7 +2414,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -2425,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>40</v>
@@ -2434,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41" s="11">
         <v>0</v>
@@ -2467,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>40</v>
@@ -2476,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -2509,16 +2531,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D43" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="11">
         <v>0</v>
@@ -2543,48 +2565,6 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>7</v>
-      </c>
-      <c r="B44" s="11">
-        <v>12</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="11">
-        <v>2</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Assets/DataSheet/Data_Messages.xlsx
+++ b/Assets/DataSheet/Data_Messages.xlsx
@@ -246,24 +246,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 응</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!</t>
-    </r>
+    <t xml:space="preserve"> 응</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아니?</t>
+    <t>아니</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/DataSheet/Data_Messages.xlsx
+++ b/Assets/DataSheet/Data_Messages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -251,6 +251,14 @@
   </si>
   <si>
     <t>아니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서와</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +365,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -393,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +451,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1838,48 +1858,44 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="15">
         <v>4</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="15">
         <v>1</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="C27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="15">
         <v>5</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12">
-        <v>2</v>
-      </c>
-      <c r="I27" s="12">
-        <v>-1</v>
-      </c>
-      <c r="J27" s="12">
-        <v>0</v>
-      </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12">
+      <c r="E27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1897,19 +1913,19 @@
         <v>5</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F28" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J28" s="12">
         <v>0</v>
@@ -1917,54 +1933,58 @@
       <c r="K28" s="12">
         <v>0</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="L28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="12">
+        <v>5</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12">
         <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -1972,16 +1992,16 @@
         <v>5</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -2010,44 +2030,44 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>7</v>
-      </c>
-      <c r="B31" s="11">
-        <v>0</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="11">
-        <v>8</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11">
+      <c r="A31" s="3">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2056,16 +2076,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D32" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
@@ -2098,16 +2118,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="11">
         <v>2</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -2140,16 +2160,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D34" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -2182,16 +2202,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D35" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -2224,16 +2244,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D36" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
@@ -2266,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>40</v>
@@ -2275,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F37" s="11">
         <v>0</v>
@@ -2308,7 +2328,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>40</v>
@@ -2317,7 +2337,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" s="11">
         <v>0</v>
@@ -2350,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>40</v>
@@ -2359,7 +2379,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="11">
         <v>0</v>
@@ -2392,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>40</v>
@@ -2401,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -2434,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>40</v>
@@ -2443,7 +2463,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="11">
         <v>0</v>
@@ -2476,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>40</v>
@@ -2485,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F42" s="11">
         <v>0</v>
@@ -2518,16 +2538,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D43" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" s="11">
         <v>0</v>
@@ -2552,6 +2572,48 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>7</v>
+      </c>
+      <c r="B44" s="11">
+        <v>12</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11">
         <v>0</v>
       </c>
     </row>
